--- a/SiteCoords_Template.xlsx
+++ b/SiteCoords_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARP\Documents\GitHub\PropagationModeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAM1\Documents\Github\PropagationModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Site</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>JX</t>
+  </si>
+  <si>
+    <t>HAT_A</t>
+  </si>
+  <si>
+    <t>HAT_B</t>
+  </si>
+  <si>
+    <t>NFC</t>
   </si>
 </sst>
 </file>
@@ -100,12 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,7 +407,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -423,9 +433,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -440,9 +449,8 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -453,7 +461,7 @@
         <v>-67.989999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +472,7 @@
         <v>-73.37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -475,7 +483,7 @@
         <v>-77.09</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -486,7 +494,7 @@
         <v>-77.39</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -497,7 +505,7 @@
         <v>-66.349999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -508,7 +516,7 @@
         <v>-69.98</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -519,17 +527,38 @@
         <v>-79.77</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>35.32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-74.466999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>35.32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-74.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31.66</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-74.466999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SiteCoords_Template.xlsx
+++ b/SiteCoords_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAM1\Documents\Github\PropagationModeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARP\Documents\GitHub\PropagationModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,13 +62,13 @@
     <t>JX</t>
   </si>
   <si>
-    <t>HAT_A</t>
-  </si>
-  <si>
-    <t>HAT_B</t>
-  </si>
-  <si>
-    <t>NFC</t>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>NF</t>
   </si>
 </sst>
 </file>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>35.32</v>
+        <v>35.322000000000003</v>
       </c>
       <c r="C11" s="2">
-        <v>-74.466999999999999</v>
+        <v>-74.87</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>35.32</v>
+        <v>35.5867</v>
       </c>
       <c r="C12" s="2">
-        <v>-74.86</v>
+        <v>-74.75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>31.66</v>
+        <v>37.1661</v>
       </c>
       <c r="C13" s="2">
-        <v>-74.466999999999999</v>
+        <v>-74.47</v>
       </c>
     </row>
   </sheetData>
